--- a/document/数据库/数据/t_global_cooperation.xlsx
+++ b/document/数据库/数据/t_global_cooperation.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>country</t>
   </si>
@@ -141,6 +141,10 @@
   </si>
   <si>
     <t>暑期人文社科与科技创新项目</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -507,136 +511,169 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="3" max="3" width="38.77734375" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="4" max="4" width="38.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
